--- a/tests/fixtures/verification/cases/stochastic/00030/00030-wc_lang.xlsx
+++ b/tests/fixtures/verification/cases/stochastic/00030/00030-wc_lang.xlsx
@@ -9,7 +9,8 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-22320" yWindow="3280" windowWidth="21560" windowHeight="8880" firstSheet="9" activeTab="16"/>
+    <workbookView xWindow="-27760" yWindow="8400" windowWidth="21280" windowHeight="5440" firstSheet="9" activeTab="12"/>
+    <workbookView xWindow="-22100" yWindow="520" windowWidth="18700" windowHeight="7860" tabRatio="500" firstSheet="15" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="!!_Table of contents" sheetId="1" r:id="rId1"/>
@@ -4938,7 +4939,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4993,9 +4994,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
@@ -5016,12 +5014,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5329,6 +5337,7 @@
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5617,6 +5626,7 @@
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5811,6 +5821,7 @@
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6003,6 +6014,7 @@
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6340,17 +6352,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+    <col min="8" max="12" width="15.6640625" customWidth="1"/>
     <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6371,40 +6387,40 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="21" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6568,6 +6584,7 @@
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6821,6 +6838,7 @@
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7043,6 +7061,7 @@
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7281,16 +7300,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="5" width="15.6640625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" style="25" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="15.6640625" customWidth="1"/>
     <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
   </cols>
@@ -7303,7 +7326,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
-      <c r="F1" s="23"/>
+      <c r="F1" s="22"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -7311,22 +7334,22 @@
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="23" t="s">
         <v>66</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -7351,13 +7374,13 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="21">
+      <c r="D3" s="20">
         <v>1</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="20">
         <v>0</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="24" t="s">
         <v>173</v>
       </c>
       <c r="G3" s="3"/>
@@ -7369,16 +7392,18 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="D4" s="21">
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="20">
         <v>1E-3</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="20">
         <v>0</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="24" t="s">
         <v>193</v>
       </c>
       <c r="G4" s="3"/>
@@ -7391,14 +7416,15 @@
       <c r="A5" s="3" t="s">
         <v>194</v>
       </c>
+      <c r="B5" s="31"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="21">
+      <c r="D5" s="20">
         <v>0.01</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="20">
         <v>0</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="24" t="s">
         <v>170</v>
       </c>
       <c r="G5" s="3"/>
@@ -7413,13 +7439,13 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="21">
+      <c r="D6" s="20">
         <v>1</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="20">
         <v>0</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="24" t="s">
         <v>172</v>
       </c>
       <c r="G6" s="3"/>
@@ -7432,8 +7458,8 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="25"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="24"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -7444,7 +7470,7 @@
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="E8" s="21"/>
+      <c r="E8" s="20"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -7455,8 +7481,8 @@
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -7467,9 +7493,9 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="25"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="24"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -7480,9 +7506,9 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="25"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="24"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -7532,6 +7558,7 @@
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7726,6 +7753,7 @@
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8221,6 +8249,7 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8500,6 +8529,7 @@
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8647,6 +8677,7 @@
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8950,6 +8981,7 @@
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9305,6 +9337,7 @@
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9561,6 +9594,7 @@
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9904,6 +9938,7 @@
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2:B6"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10054,6 +10089,7 @@
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10214,6 +10250,7 @@
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3:C3"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10397,6 +10434,7 @@
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10867,6 +10905,7 @@
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4:A5"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11200,6 +11239,7 @@
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E3" sqref="E3:E4"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11444,6 +11484,7 @@
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>

--- a/tests/fixtures/verification/cases/stochastic/00030/00030-wc_lang.xlsx
+++ b/tests/fixtures/verification/cases/stochastic/00030/00030-wc_lang.xlsx
@@ -2872,7 +2872,7 @@
     <row r="1" ht="15" customHeight="1" s="31">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observable' name='Observables' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observable' name='Observables' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -3093,7 +3093,7 @@
     <row r="1" ht="15" customHeight="1" s="31">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Function' name='Functions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Function' name='Functions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -3312,7 +3312,7 @@
     <row r="1" ht="15" customHeight="1" s="31">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reaction' name='Reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reaction' name='Reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -3700,7 +3700,7 @@
     <row r="1" ht="15" customHeight="1" s="31">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='RateLaw' name='Rate laws' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='RateLaw' name='Rate laws' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -3962,7 +3962,7 @@
     <row r="1" ht="15" customHeight="1" s="31">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjective' name='dFBA objectives' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjective' name='dFBA objectives' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4236,7 +4236,7 @@
     <row r="1" ht="15" customHeight="1" s="31">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjReaction' name='dFBA objective reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjReaction' name='dFBA objective reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4475,7 +4475,7 @@
     <row r="1" ht="15" customHeight="1" s="31">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjSpecies' name='dFBA objective species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjSpecies' name='dFBA objective species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4736,7 +4736,7 @@
     <row r="1" ht="15" customHeight="1" s="31">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Parameter' name='Parameters' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Parameter' name='Parameters' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -5029,7 +5029,7 @@
     <row r="1" ht="15" customHeight="1" s="31">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='StopCondition' name='Stop conditions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='StopCondition' name='Stop conditions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -5250,7 +5250,7 @@
     <row r="1" ht="15" customHeight="1" s="31">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observation' name='Observations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observation' name='Observations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -5785,7 +5785,7 @@
     <row r="1" ht="15" customHeight="1" s="31">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Model' name='Models' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Model' name='Models' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6110,7 +6110,7 @@
     <row r="1" ht="15" customHeight="1" s="31">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='ObservationSet' name='Observation sets' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='ObservationSet' name='Observation sets' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6278,7 +6278,7 @@
     <row r="1" ht="15" customHeight="1" s="31">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Conclusion' name='Conclusions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Conclusion' name='Conclusions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6617,7 +6617,7 @@
     <row r="1" ht="15" customHeight="1" s="31">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reference' name='References' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reference' name='References' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -7017,7 +7017,7 @@
     <row r="1" ht="15" customHeight="1" s="31">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Author' name='Authors' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Author' name='Authors' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -7306,7 +7306,7 @@
     <row r="1" ht="15" customHeight="1" s="31">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Change' name='Changes' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Change' name='Changes' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -7682,7 +7682,7 @@
     <row r="1" ht="15" customHeight="1" s="31">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Taxon' name='Taxons' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Taxon' name='Taxons' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
       <c r="B1" s="4" t="n"/>
@@ -7858,7 +7858,7 @@
     <row r="1" ht="15" customHeight="1" s="31">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Environment' name='Environments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Environment' name='Environments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
       <c r="B1" s="4" t="n"/>
@@ -8040,7 +8040,7 @@
     <row r="1" ht="15" customHeight="1" s="31">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Submodel' name='Submodels' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Submodel' name='Submodels' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -8254,7 +8254,7 @@
     <row r="1" ht="15" customHeight="1" s="31">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Compartment' name='Compartments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Compartment' name='Compartments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -8761,7 +8761,7 @@
     <row r="1" ht="15" customHeight="1" s="31">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='SpeciesType' name='Species types' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='SpeciesType' name='Species types' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -9134,7 +9134,7 @@
     <row r="1" ht="15" customHeight="1" s="31">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Species' name='Species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Species' name='Species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -9405,7 +9405,7 @@
     <row r="1" ht="15" customHeight="1" s="31">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DistributionInitConcentration' name='Init species concentrations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DistributionInitConcentration' name='Init species concentrations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
